--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Gpc3-Cd81.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Gpc3-Cd81.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -88,13 +94,7 @@
     <t>Cd81</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>24.2714841173736</v>
+        <v>1.056541</v>
       </c>
       <c r="H2">
-        <v>24.2714841173736</v>
+        <v>3.169623</v>
       </c>
       <c r="I2">
-        <v>0.873567621447274</v>
+        <v>0.03562122963578939</v>
       </c>
       <c r="J2">
-        <v>0.873567621447274</v>
+        <v>0.03562122963578939</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>176.820863059886</v>
+        <v>180.2684326666667</v>
       </c>
       <c r="N2">
-        <v>176.820863059886</v>
+        <v>540.805298</v>
       </c>
       <c r="O2">
-        <v>0.4235296172568159</v>
+        <v>0.4185009648140325</v>
       </c>
       <c r="P2">
-        <v>0.4235296172568159</v>
+        <v>0.4185009648140325</v>
       </c>
       <c r="Q2">
-        <v>4291.704769378315</v>
+        <v>190.4609901180727</v>
       </c>
       <c r="R2">
-        <v>4291.704769378315</v>
+        <v>1714.148911062654</v>
       </c>
       <c r="S2">
-        <v>0.369981760359511</v>
+        <v>0.01490751897044007</v>
       </c>
       <c r="T2">
-        <v>0.369981760359511</v>
+        <v>0.01490751897044007</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>24.2714841173736</v>
+        <v>1.056541</v>
       </c>
       <c r="H3">
-        <v>24.2714841173736</v>
+        <v>3.169623</v>
       </c>
       <c r="I3">
-        <v>0.873567621447274</v>
+        <v>0.03562122963578939</v>
       </c>
       <c r="J3">
-        <v>0.873567621447274</v>
+        <v>0.03562122963578939</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>179.876571418374</v>
+        <v>180.322779</v>
       </c>
       <c r="N3">
-        <v>179.876571418374</v>
+        <v>540.968337</v>
       </c>
       <c r="O3">
-        <v>0.4308487931115371</v>
+        <v>0.418627132177878</v>
       </c>
       <c r="P3">
-        <v>0.4308487931115371</v>
+        <v>0.4186271321778779</v>
       </c>
       <c r="Q3">
-        <v>4365.871346268683</v>
+        <v>190.518409247439</v>
       </c>
       <c r="R3">
-        <v>4365.871346268683</v>
+        <v>1714.665683226951</v>
       </c>
       <c r="S3">
-        <v>0.3763755554018741</v>
+        <v>0.01491201320708015</v>
       </c>
       <c r="T3">
-        <v>0.3763755554018741</v>
+        <v>0.01491201320708015</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>24.2714841173736</v>
+        <v>1.056541</v>
       </c>
       <c r="H4">
-        <v>24.2714841173736</v>
+        <v>3.169623</v>
       </c>
       <c r="I4">
-        <v>0.873567621447274</v>
+        <v>0.03562122963578939</v>
       </c>
       <c r="J4">
-        <v>0.873567621447274</v>
+        <v>0.03562122963578939</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.34634549108883</v>
+        <v>5.375574333333334</v>
       </c>
       <c r="N4">
-        <v>5.34634549108883</v>
+        <v>16.126723</v>
       </c>
       <c r="O4">
-        <v>0.012805817256964</v>
+        <v>0.01247962836116419</v>
       </c>
       <c r="P4">
-        <v>0.012805817256964</v>
+        <v>0.01247962836116419</v>
       </c>
       <c r="Q4">
-        <v>129.7637396729545</v>
+        <v>5.679514681714333</v>
       </c>
       <c r="R4">
-        <v>129.7637396729545</v>
+        <v>51.115632135429</v>
       </c>
       <c r="S4">
-        <v>0.01118674732185449</v>
+        <v>0.0004445397076223396</v>
       </c>
       <c r="T4">
-        <v>0.01118674732185449</v>
+        <v>0.0004445397076223395</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>24.2714841173736</v>
+        <v>1.056541</v>
       </c>
       <c r="H5">
-        <v>24.2714841173736</v>
+        <v>3.169623</v>
       </c>
       <c r="I5">
-        <v>0.873567621447274</v>
+        <v>0.03562122963578939</v>
       </c>
       <c r="J5">
-        <v>0.873567621447274</v>
+        <v>0.03562122963578939</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.67437888545502</v>
+        <v>8.969472333333334</v>
       </c>
       <c r="N5">
-        <v>5.67437888545502</v>
+        <v>26.908417</v>
       </c>
       <c r="O5">
-        <v>0.01359153821522169</v>
+        <v>0.02082301803951321</v>
       </c>
       <c r="P5">
-        <v>0.01359153821522169</v>
+        <v>0.02082301803951321</v>
       </c>
       <c r="Q5">
-        <v>137.7255969942816</v>
+        <v>9.476615268532333</v>
       </c>
       <c r="R5">
-        <v>137.7255969942816</v>
+        <v>85.28953741679101</v>
       </c>
       <c r="S5">
-        <v>0.01187312771048094</v>
+        <v>0.000741741507295685</v>
       </c>
       <c r="T5">
-        <v>0.01187312771048094</v>
+        <v>0.0007417415072956849</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>24.2714841173736</v>
+        <v>1.056541</v>
       </c>
       <c r="H6">
-        <v>24.2714841173736</v>
+        <v>3.169623</v>
       </c>
       <c r="I6">
-        <v>0.873567621447274</v>
+        <v>0.03562122963578939</v>
       </c>
       <c r="J6">
-        <v>0.873567621447274</v>
+        <v>0.03562122963578939</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>49.7753430286005</v>
+        <v>55.81169166666666</v>
       </c>
       <c r="N6">
-        <v>49.7753430286005</v>
+        <v>167.435075</v>
       </c>
       <c r="O6">
-        <v>0.1192242341594613</v>
+        <v>0.129569256607412</v>
       </c>
       <c r="P6">
-        <v>0.1192242341594613</v>
+        <v>0.1295692566074119</v>
       </c>
       <c r="Q6">
-        <v>1208.1214477555</v>
+        <v>58.96734052519166</v>
       </c>
       <c r="R6">
-        <v>1208.1214477555</v>
+        <v>530.7060647267249</v>
       </c>
       <c r="S6">
-        <v>0.1041504306535534</v>
+        <v>0.004615416243351144</v>
       </c>
       <c r="T6">
-        <v>0.1041504306535534</v>
+        <v>0.004615416243351143</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.51283792190033</v>
+        <v>24.43903466666667</v>
       </c>
       <c r="H7">
-        <v>3.51283792190033</v>
+        <v>73.317104</v>
       </c>
       <c r="I7">
-        <v>0.126432378552726</v>
+        <v>0.8239608930825695</v>
       </c>
       <c r="J7">
-        <v>0.126432378552726</v>
+        <v>0.8239608930825695</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>176.820863059886</v>
+        <v>180.2684326666667</v>
       </c>
       <c r="N7">
-        <v>176.820863059886</v>
+        <v>540.805298</v>
       </c>
       <c r="O7">
-        <v>0.4235296172568159</v>
+        <v>0.4185009648140325</v>
       </c>
       <c r="P7">
-        <v>0.4235296172568159</v>
+        <v>0.4185009648140325</v>
       </c>
       <c r="Q7">
-        <v>621.1430331399127</v>
+        <v>4405.586475246332</v>
       </c>
       <c r="R7">
-        <v>621.1430331399127</v>
+        <v>39650.27827721699</v>
       </c>
       <c r="S7">
-        <v>0.05354785689730491</v>
+        <v>0.3448284287240873</v>
       </c>
       <c r="T7">
-        <v>0.05354785689730491</v>
+        <v>0.3448284287240872</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.51283792190033</v>
+        <v>24.43903466666667</v>
       </c>
       <c r="H8">
-        <v>3.51283792190033</v>
+        <v>73.317104</v>
       </c>
       <c r="I8">
-        <v>0.126432378552726</v>
+        <v>0.8239608930825695</v>
       </c>
       <c r="J8">
-        <v>0.126432378552726</v>
+        <v>0.8239608930825695</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>179.876571418374</v>
+        <v>180.322779</v>
       </c>
       <c r="N8">
-        <v>179.876571418374</v>
+        <v>540.968337</v>
       </c>
       <c r="O8">
-        <v>0.4308487931115371</v>
+        <v>0.418627132177878</v>
       </c>
       <c r="P8">
-        <v>0.4308487931115371</v>
+        <v>0.4186271321778779</v>
       </c>
       <c r="Q8">
-        <v>631.8772413398772</v>
+        <v>4406.914647170672</v>
       </c>
       <c r="R8">
-        <v>631.8772413398772</v>
+        <v>39662.23182453605</v>
       </c>
       <c r="S8">
-        <v>0.05447323770966299</v>
+        <v>0.3449323856978792</v>
       </c>
       <c r="T8">
-        <v>0.05447323770966299</v>
+        <v>0.3449323856978792</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.51283792190033</v>
+        <v>24.43903466666667</v>
       </c>
       <c r="H9">
-        <v>3.51283792190033</v>
+        <v>73.317104</v>
       </c>
       <c r="I9">
-        <v>0.126432378552726</v>
+        <v>0.8239608930825695</v>
       </c>
       <c r="J9">
-        <v>0.126432378552726</v>
+        <v>0.8239608930825695</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.34634549108883</v>
+        <v>5.375574333333334</v>
       </c>
       <c r="N9">
-        <v>5.34634549108883</v>
+        <v>16.126723</v>
       </c>
       <c r="O9">
-        <v>0.012805817256964</v>
+        <v>0.01247962836116419</v>
       </c>
       <c r="P9">
-        <v>0.012805817256964</v>
+        <v>0.01247962836116419</v>
       </c>
       <c r="Q9">
-        <v>18.78084518467769</v>
+        <v>131.3738474855769</v>
       </c>
       <c r="R9">
-        <v>18.78084518467769</v>
+        <v>1182.364627370192</v>
       </c>
       <c r="S9">
-        <v>0.001619069935109504</v>
+        <v>0.01028272572980341</v>
       </c>
       <c r="T9">
-        <v>0.001619069935109504</v>
+        <v>0.01028272572980341</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.51283792190033</v>
+        <v>24.43903466666667</v>
       </c>
       <c r="H10">
-        <v>3.51283792190033</v>
+        <v>73.317104</v>
       </c>
       <c r="I10">
-        <v>0.126432378552726</v>
+        <v>0.8239608930825695</v>
       </c>
       <c r="J10">
-        <v>0.126432378552726</v>
+        <v>0.8239608930825695</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.67437888545502</v>
+        <v>8.969472333333334</v>
       </c>
       <c r="N10">
-        <v>5.67437888545502</v>
+        <v>26.908417</v>
       </c>
       <c r="O10">
-        <v>0.01359153821522169</v>
+        <v>0.02082301803951321</v>
       </c>
       <c r="P10">
-        <v>0.01359153821522169</v>
+        <v>0.02082301803951321</v>
       </c>
       <c r="Q10">
-        <v>19.93317333205692</v>
+        <v>219.2052452960409</v>
       </c>
       <c r="R10">
-        <v>19.93317333205692</v>
+        <v>1972.847207664368</v>
       </c>
       <c r="S10">
-        <v>0.001718410504740751</v>
+        <v>0.01715735254051176</v>
       </c>
       <c r="T10">
-        <v>0.001718410504740751</v>
+        <v>0.01715735254051176</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,681 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>24.43903466666667</v>
+      </c>
+      <c r="H11">
+        <v>73.317104</v>
+      </c>
+      <c r="I11">
+        <v>0.8239608930825695</v>
+      </c>
+      <c r="J11">
+        <v>0.8239608930825695</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>55.81169166666666</v>
+      </c>
+      <c r="N11">
+        <v>167.435075</v>
+      </c>
+      <c r="O11">
+        <v>0.129569256607412</v>
+      </c>
+      <c r="P11">
+        <v>0.1295692566074119</v>
+      </c>
+      <c r="Q11">
+        <v>1363.983867446978</v>
+      </c>
+      <c r="R11">
+        <v>12275.8548070228</v>
+      </c>
+      <c r="S11">
+        <v>0.1067600003902878</v>
+      </c>
+      <c r="T11">
+        <v>0.1067600003902878</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1357026666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.407108</v>
+      </c>
+      <c r="I12">
+        <v>0.004575208961623179</v>
+      </c>
+      <c r="J12">
+        <v>0.00457520896162318</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>180.2684326666667</v>
+      </c>
+      <c r="N12">
+        <v>540.805298</v>
+      </c>
+      <c r="O12">
+        <v>0.4185009648140325</v>
+      </c>
+      <c r="P12">
+        <v>0.4185009648140325</v>
+      </c>
+      <c r="Q12">
+        <v>24.46290702868711</v>
+      </c>
+      <c r="R12">
+        <v>220.166163258184</v>
+      </c>
+      <c r="S12">
+        <v>0.001914729364665109</v>
+      </c>
+      <c r="T12">
+        <v>0.001914729364665109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1357026666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.407108</v>
+      </c>
+      <c r="I13">
+        <v>0.004575208961623179</v>
+      </c>
+      <c r="J13">
+        <v>0.00457520896162318</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>180.322779</v>
+      </c>
+      <c r="N13">
+        <v>540.968337</v>
+      </c>
+      <c r="O13">
+        <v>0.418627132177878</v>
+      </c>
+      <c r="P13">
+        <v>0.4186271321778779</v>
+      </c>
+      <c r="Q13">
+        <v>24.470281971044</v>
+      </c>
+      <c r="R13">
+        <v>220.232537739396</v>
+      </c>
+      <c r="S13">
+        <v>0.001915306606718839</v>
+      </c>
+      <c r="T13">
+        <v>0.001915306606718839</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1357026666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.407108</v>
+      </c>
+      <c r="I14">
+        <v>0.004575208961623179</v>
+      </c>
+      <c r="J14">
+        <v>0.00457520896162318</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5.375574333333334</v>
+      </c>
+      <c r="N14">
+        <v>16.126723</v>
+      </c>
+      <c r="O14">
+        <v>0.01247962836116419</v>
+      </c>
+      <c r="P14">
+        <v>0.01247962836116419</v>
+      </c>
+      <c r="Q14">
+        <v>0.7294797718982222</v>
+      </c>
+      <c r="R14">
+        <v>6.565317947084001</v>
+      </c>
+      <c r="S14">
+        <v>5.709690751572519E-05</v>
+      </c>
+      <c r="T14">
+        <v>5.709690751572519E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1357026666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.407108</v>
+      </c>
+      <c r="I15">
+        <v>0.004575208961623179</v>
+      </c>
+      <c r="J15">
+        <v>0.00457520896162318</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>8.969472333333334</v>
+      </c>
+      <c r="N15">
+        <v>26.908417</v>
+      </c>
+      <c r="O15">
+        <v>0.02082301803951321</v>
+      </c>
+      <c r="P15">
+        <v>0.02082301803951321</v>
+      </c>
+      <c r="Q15">
+        <v>1.217181314226222</v>
+      </c>
+      <c r="R15">
+        <v>10.954631828036</v>
+      </c>
+      <c r="S15">
+        <v>9.526965874242196E-05</v>
+      </c>
+      <c r="T15">
+        <v>9.526965874242198E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1357026666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.407108</v>
+      </c>
+      <c r="I16">
+        <v>0.004575208961623179</v>
+      </c>
+      <c r="J16">
+        <v>0.00457520896162318</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>55.81169166666666</v>
+      </c>
+      <c r="N16">
+        <v>167.435075</v>
+      </c>
+      <c r="O16">
+        <v>0.129569256607412</v>
+      </c>
+      <c r="P16">
+        <v>0.1295692566074119</v>
+      </c>
+      <c r="Q16">
+        <v>7.573795390344443</v>
+      </c>
+      <c r="R16">
+        <v>68.16415851309999</v>
+      </c>
+      <c r="S16">
+        <v>0.0005928064239810846</v>
+      </c>
+      <c r="T16">
+        <v>0.0005928064239810846</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.029152</v>
+      </c>
+      <c r="H17">
+        <v>12.087456</v>
+      </c>
+      <c r="I17">
+        <v>0.135842668320018</v>
+      </c>
+      <c r="J17">
+        <v>0.135842668320018</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>180.2684326666667</v>
+      </c>
+      <c r="N17">
+        <v>540.805298</v>
+      </c>
+      <c r="O17">
+        <v>0.4185009648140325</v>
+      </c>
+      <c r="P17">
+        <v>0.4185009648140325</v>
+      </c>
+      <c r="Q17">
+        <v>726.3289160157652</v>
+      </c>
+      <c r="R17">
+        <v>6536.960244141887</v>
+      </c>
+      <c r="S17">
+        <v>0.05685028775484013</v>
+      </c>
+      <c r="T17">
+        <v>0.05685028775484012</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>3.51283792190033</v>
-      </c>
-      <c r="H11">
-        <v>3.51283792190033</v>
-      </c>
-      <c r="I11">
-        <v>0.126432378552726</v>
-      </c>
-      <c r="J11">
-        <v>0.126432378552726</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>49.7753430286005</v>
-      </c>
-      <c r="N11">
-        <v>49.7753430286005</v>
-      </c>
-      <c r="O11">
-        <v>0.1192242341594613</v>
-      </c>
-      <c r="P11">
-        <v>0.1192242341594613</v>
-      </c>
-      <c r="Q11">
-        <v>174.8527125664651</v>
-      </c>
-      <c r="R11">
-        <v>174.8527125664651</v>
-      </c>
-      <c r="S11">
-        <v>0.01507380350590786</v>
-      </c>
-      <c r="T11">
-        <v>0.01507380350590786</v>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>4.029152</v>
+      </c>
+      <c r="H18">
+        <v>12.087456</v>
+      </c>
+      <c r="I18">
+        <v>0.135842668320018</v>
+      </c>
+      <c r="J18">
+        <v>0.135842668320018</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>180.322779</v>
+      </c>
+      <c r="N18">
+        <v>540.968337</v>
+      </c>
+      <c r="O18">
+        <v>0.418627132177878</v>
+      </c>
+      <c r="P18">
+        <v>0.4186271321778779</v>
+      </c>
+      <c r="Q18">
+        <v>726.547885653408</v>
+      </c>
+      <c r="R18">
+        <v>6538.930970880672</v>
+      </c>
+      <c r="S18">
+        <v>0.0568674266661998</v>
+      </c>
+      <c r="T18">
+        <v>0.05686742666619979</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4.029152</v>
+      </c>
+      <c r="H19">
+        <v>12.087456</v>
+      </c>
+      <c r="I19">
+        <v>0.135842668320018</v>
+      </c>
+      <c r="J19">
+        <v>0.135842668320018</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.375574333333334</v>
+      </c>
+      <c r="N19">
+        <v>16.126723</v>
+      </c>
+      <c r="O19">
+        <v>0.01247962836116419</v>
+      </c>
+      <c r="P19">
+        <v>0.01247962836116419</v>
+      </c>
+      <c r="Q19">
+        <v>21.65900607629867</v>
+      </c>
+      <c r="R19">
+        <v>194.931054686688</v>
+      </c>
+      <c r="S19">
+        <v>0.001695266016222716</v>
+      </c>
+      <c r="T19">
+        <v>0.001695266016222716</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4.029152</v>
+      </c>
+      <c r="H20">
+        <v>12.087456</v>
+      </c>
+      <c r="I20">
+        <v>0.135842668320018</v>
+      </c>
+      <c r="J20">
+        <v>0.135842668320018</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>8.969472333333334</v>
+      </c>
+      <c r="N20">
+        <v>26.908417</v>
+      </c>
+      <c r="O20">
+        <v>0.02082301803951321</v>
+      </c>
+      <c r="P20">
+        <v>0.02082301803951321</v>
+      </c>
+      <c r="Q20">
+        <v>36.13936739079467</v>
+      </c>
+      <c r="R20">
+        <v>325.254306517152</v>
+      </c>
+      <c r="S20">
+        <v>0.002828654332963344</v>
+      </c>
+      <c r="T20">
+        <v>0.002828654332963343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4.029152</v>
+      </c>
+      <c r="H21">
+        <v>12.087456</v>
+      </c>
+      <c r="I21">
+        <v>0.135842668320018</v>
+      </c>
+      <c r="J21">
+        <v>0.135842668320018</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>55.81169166666666</v>
+      </c>
+      <c r="N21">
+        <v>167.435075</v>
+      </c>
+      <c r="O21">
+        <v>0.129569256607412</v>
+      </c>
+      <c r="P21">
+        <v>0.1295692566074119</v>
+      </c>
+      <c r="Q21">
+        <v>224.8737891021333</v>
+      </c>
+      <c r="R21">
+        <v>2023.8641019192</v>
+      </c>
+      <c r="S21">
+        <v>0.01760103354979196</v>
+      </c>
+      <c r="T21">
+        <v>0.01760103354979196</v>
       </c>
     </row>
   </sheetData>
